--- a/xlsx/FR/donation_FR.xlsx
+++ b/xlsx/FR/donation_FR.xlsx
@@ -12,30 +12,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Donation to climate charity ($/year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
   </si>
 </sst>
 </file>
@@ -374,67 +518,437 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.28294476016745</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.0100035413320371</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.0136071058822232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0013815061605415</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.00641024298198686</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B7" t="n">
+        <v>0.0164478401973351</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0160614131890609</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.00144102489719404</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0213343644382511</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.00251804348768697</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0727525508967633</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.00487228801046885</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.00560566971355963</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0116286804022773</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.00179889702867607</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.00397555476350007</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0147345831853658</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01192860085392</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.150728578589153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.00212186593697197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.00638469101605463</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.00111232171047694</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.012285368416453</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.00309215589030066</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.00489294256016877</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0152582299205045</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.00172836442918704</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.00346582619359207</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0129381919732594</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.00590108532197809</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.00171022291931835</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.00866244964196098</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.054952200284508</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0123902976492384</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.00284287780350341</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0049853182260192</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.00163035525328758</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.00158792981234274</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0613111476320475</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.00839277461287123</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.00189226964698305</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.00838495103531188</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0203750558363931</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.00861634961771757</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.00127698097925392</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0022574060310147</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.00292284902052252</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.00450085775337061</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.00299393135832673</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0049530297520313</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.00187597796870047</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.00615857130300722</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.00332735791246368</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0526425484034087</v>
       </c>
     </row>
   </sheetData>
